--- a/output/reports/SC_RF_HowMth_thru2022.xlsx
+++ b/output/reports/SC_RF_HowMth_thru2022.xlsx
@@ -10,8 +10,6 @@
     <sheet name="BRF release" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="YE harvest" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="YE release" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="PEL harvest" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="PEL release" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -191,74 +189,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">11</xdr:col>
-      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
-      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="9144000" cy="6400800"/>
-    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
-        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">11</xdr:col>
-      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
-      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="9144000" cy="6400800"/>
-    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
-        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -276,7 +206,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
@@ -1332,22 +1262,22 @@
         <v>2022</v>
       </c>
       <c r="D26" t="n">
-        <v>9452.56375838926</v>
+        <v>9553.24550898204</v>
       </c>
       <c r="E26" t="n">
-        <v>438.56178551856</v>
+        <v>409.28347813747</v>
       </c>
       <c r="F26" t="n">
-        <v>3275.58584062315</v>
+        <v>3318.48041710751</v>
       </c>
       <c r="G26" t="n">
-        <v>834.596616857968</v>
+        <v>830.213615133149</v>
       </c>
       <c r="H26" t="n">
-        <v>12728.1495990124</v>
+        <v>12871.7259260895</v>
       </c>
       <c r="I26" t="n">
-        <v>942.808545033399</v>
+        <v>925.617422172227</v>
       </c>
     </row>
     <row r="27">
@@ -4247,22 +4177,22 @@
         <v>2022</v>
       </c>
       <c r="D25" t="n">
-        <v>228.275167785235</v>
+        <v>255.233532934132</v>
       </c>
       <c r="E25" t="n">
-        <v>10.591070077109</v>
+        <v>10.9348040933711</v>
       </c>
       <c r="F25" t="n">
-        <v>209.621732794936</v>
+        <v>234.790600712152</v>
       </c>
       <c r="G25" t="n">
-        <v>239.307439676579</v>
+        <v>267.521872522888</v>
       </c>
       <c r="H25" t="n">
-        <v>437.896900580171</v>
+        <v>490.024133646284</v>
       </c>
       <c r="I25" t="n">
-        <v>239.541690421392</v>
+        <v>267.745256202071</v>
       </c>
     </row>
     <row r="26">
@@ -4943,22 +4873,22 @@
         <v>2022</v>
       </c>
       <c r="D49" t="n">
-        <v>909.482727723666</v>
+        <v>1000.6891318284</v>
       </c>
       <c r="E49" t="n">
-        <v>13.0899438445971</v>
+        <v>14.4026534449068</v>
       </c>
       <c r="F49" t="n">
-        <v>1062.33320029821</v>
+        <v>1138.76004924053</v>
       </c>
       <c r="G49" t="n">
-        <v>683.059873764314</v>
+        <v>732.200871876854</v>
       </c>
       <c r="H49" t="n">
-        <v>1971.81592802188</v>
+        <v>2139.44918106893</v>
       </c>
       <c r="I49" t="n">
-        <v>683.185288027176</v>
+        <v>732.342510853684</v>
       </c>
     </row>
     <row r="50">
@@ -5639,22 +5569,22 @@
         <v>2022</v>
       </c>
       <c r="D73" t="n">
-        <v>627.073730942867</v>
+        <v>667.082341380628</v>
       </c>
       <c r="E73" t="n">
-        <v>9.97582445539059</v>
+        <v>10.6123028386121</v>
       </c>
       <c r="F73" t="n">
-        <v>134.592668003688</v>
+        <v>141.638319600494</v>
       </c>
       <c r="G73" t="n">
-        <v>116.083452145501</v>
+        <v>122.160184051502</v>
       </c>
       <c r="H73" t="n">
-        <v>761.666398946555</v>
+        <v>808.720660981122</v>
       </c>
       <c r="I73" t="n">
-        <v>116.511308187582</v>
+        <v>122.620273768391</v>
       </c>
     </row>
     <row r="74">
@@ -6335,22 +6265,22 @@
         <v>2022</v>
       </c>
       <c r="D97" t="n">
-        <v>297.269392697598</v>
+        <v>311.383073063063</v>
       </c>
       <c r="E97" t="n">
-        <v>4.40743493852399</v>
+        <v>4.61669000978923</v>
       </c>
       <c r="F97" t="n">
-        <v>363.386727163083</v>
+        <v>373.784841343954</v>
       </c>
       <c r="G97" t="n">
-        <v>571.94126487484</v>
+        <v>588.307054080596</v>
       </c>
       <c r="H97" t="n">
-        <v>660.656119860681</v>
+        <v>685.167914407017</v>
       </c>
       <c r="I97" t="n">
-        <v>571.958246683593</v>
+        <v>588.325168344544</v>
       </c>
     </row>
   </sheetData>
@@ -7110,16 +7040,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>81.8896460155789</v>
+        <v>72.1408786327719</v>
       </c>
       <c r="G26" t="n">
-        <v>85.7309481715299</v>
+        <v>75.5248829130145</v>
       </c>
       <c r="H26" t="n">
-        <v>395.889646015579</v>
+        <v>386.140878632772</v>
       </c>
       <c r="I26" t="n">
-        <v>85.7309481715299</v>
+        <v>75.5248829130145</v>
       </c>
     </row>
     <row r="27">
@@ -9358,7 +9288,7 @@
         <v>20.5098805457272</v>
       </c>
       <c r="F2" t="n">
-        <v>1211.57279049933</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -9387,7 +9317,7 @@
         <v>24.4862859576539</v>
       </c>
       <c r="F3" t="n">
-        <v>1510.07623163684</v>
+        <v>25.1818137877986</v>
       </c>
       <c r="G3" t="n">
         <v>33.9401338456712</v>
@@ -9416,7 +9346,7 @@
         <v>22.3934410040083</v>
       </c>
       <c r="F4" t="n">
-        <v>1424.23210477377</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9445,7 +9375,7 @@
         <v>28.2534068742161</v>
       </c>
       <c r="F5" t="n">
-        <v>3191.84071699984</v>
+        <v>53.2266761716261</v>
       </c>
       <c r="G5" t="n">
         <v>71.7390942784471</v>
@@ -9474,7 +9404,7 @@
         <v>70.5288749378579</v>
       </c>
       <c r="F6" t="n">
-        <v>6371.97541670016</v>
+        <v>106.258144484432</v>
       </c>
       <c r="G6" t="n">
         <v>143.215086744137</v>
@@ -9503,7 +9433,7 @@
         <v>29.2998293510389</v>
       </c>
       <c r="F7" t="n">
-        <v>6869.48115192936</v>
+        <v>114.554478484288</v>
       </c>
       <c r="G7" t="n">
         <v>154.396913786315</v>
@@ -9532,7 +9462,7 @@
         <v>21.55630302255</v>
       </c>
       <c r="F8" t="n">
-        <v>4300.01035468682</v>
+        <v>71.7063534732664</v>
       </c>
       <c r="G8" t="n">
         <v>96.646065886123</v>
@@ -9561,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2934.30833641061</v>
+        <v>48.9321032775829</v>
       </c>
       <c r="G9" t="n">
         <v>65.9508543977899</v>
@@ -9590,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2462.16563866369</v>
+        <v>41.0587196385037</v>
       </c>
       <c r="G10" t="n">
         <v>55.3390812832519</v>
@@ -9619,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1437.88912495653</v>
+        <v>23.9780319917411</v>
       </c>
       <c r="G11" t="n">
         <v>32.3176726670021</v>
@@ -9648,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1180.3567443673</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -9677,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1346.1919894437</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -9706,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3933.12558139535</v>
+        <v>78.662511627907</v>
       </c>
       <c r="G14" t="n">
         <v>90.4316901890436</v>
@@ -9735,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>547.436307692308</v>
+        <v>8.68946527098092</v>
       </c>
       <c r="G15" t="n">
         <v>13.4105140512659</v>
@@ -9764,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>834.858902001026</v>
+        <v>42.8132767902206</v>
       </c>
       <c r="G16" t="n">
         <v>40.8539424395944</v>
@@ -9793,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>720.523424878837</v>
+        <v>23.8189560216543</v>
       </c>
       <c r="G17" t="n">
         <v>26.4888678411167</v>
@@ -9822,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1152.66067761807</v>
+        <v>29.181283327848</v>
       </c>
       <c r="G18" t="n">
         <v>31.6110073612676</v>
@@ -9851,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>588.200600436681</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -9880,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>415.616851441242</v>
+        <v>15.3932167046528</v>
       </c>
       <c r="G20" t="n">
         <v>16.9897330150849</v>
@@ -9909,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1080.49140546006</v>
+        <v>18.9559899485945</v>
       </c>
       <c r="G21" t="n">
         <v>24.1800933804283</v>
@@ -9936,7 +9866,7 @@
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
-        <v>547.291139240506</v>
+        <v>4.80079956303798</v>
       </c>
       <c r="G22" t="n">
         <v>6.53765291434952</v>
@@ -9965,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1210.53924914676</v>
+        <v>63.7125920603557</v>
       </c>
       <c r="G23" t="n">
         <v>93.7188595383399</v>
@@ -9994,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>640.737489025461</v>
+        <v>15.6277436347673</v>
       </c>
       <c r="G24" t="n">
         <v>26.1294324914297</v>
@@ -10023,16 +9953,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>581.700308505949</v>
+        <v>5.10414349374243</v>
       </c>
       <c r="G25" t="n">
-        <v>18.5815146595249</v>
+        <v>9.59445857918961</v>
       </c>
       <c r="H25" t="n">
-        <v>16.3466800408759</v>
+        <v>12.1041434937424</v>
       </c>
       <c r="I25" t="n">
-        <v>18.5815146595249</v>
+        <v>9.59445857918961</v>
       </c>
     </row>
     <row r="26">
@@ -10052,7 +9982,7 @@
         <v>3.60313665436103</v>
       </c>
       <c r="F26" t="n">
-        <v>3707.31759627751</v>
+        <v>798.326831083858</v>
       </c>
       <c r="G26" t="n">
         <v>342.059916673652</v>
@@ -10081,7 +10011,7 @@
         <v>37.5373823119434</v>
       </c>
       <c r="F27" t="n">
-        <v>7494.35003024375</v>
+        <v>551.055151046005</v>
       </c>
       <c r="G27" t="n">
         <v>282.796802318481</v>
@@ -10110,7 +10040,7 @@
         <v>12.8647548708866</v>
       </c>
       <c r="F28" t="n">
-        <v>6128.80020201065</v>
+        <v>1181.45545856101</v>
       </c>
       <c r="G28" t="n">
         <v>507.947192235414</v>
@@ -10139,7 +10069,7 @@
         <v>13.8215198358212</v>
       </c>
       <c r="F29" t="n">
-        <v>4484.82608561835</v>
+        <v>318.687521422693</v>
       </c>
       <c r="G29" t="n">
         <v>145.990451922464</v>
@@ -10168,7 +10098,7 @@
         <v>20.6564991295234</v>
       </c>
       <c r="F30" t="n">
-        <v>4885.71084906749</v>
+        <v>553.655588525806</v>
       </c>
       <c r="G30" t="n">
         <v>238.177372390383</v>
@@ -10197,7 +10127,7 @@
         <v>10.382733571849</v>
       </c>
       <c r="F31" t="n">
-        <v>5744.0894635998</v>
+        <v>961.580341618451</v>
       </c>
       <c r="G31" t="n">
         <v>394.843675764379</v>
@@ -10226,7 +10156,7 @@
         <v>17.6139127471723</v>
       </c>
       <c r="F32" t="n">
-        <v>5766.03992615177</v>
+        <v>742.650950784541</v>
       </c>
       <c r="G32" t="n">
         <v>321.733363141884</v>
@@ -10255,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>4254.92387257403</v>
+        <v>796.443228580714</v>
       </c>
       <c r="G33" t="n">
         <v>329.972977038854</v>
@@ -10284,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3668.03782118451</v>
+        <v>471.844280792365</v>
       </c>
       <c r="G34" t="n">
         <v>203.611797394177</v>
@@ -10313,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3190.90408255484</v>
+        <v>407.96947085338</v>
       </c>
       <c r="G35" t="n">
         <v>178.611604491635</v>
@@ -10342,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1912.00081702689</v>
+        <v>203.547798275055</v>
       </c>
       <c r="G36" t="n">
         <v>84.6757564186056</v>
@@ -10371,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1925.86426705971</v>
+        <v>218.896253550332</v>
       </c>
       <c r="G37" t="n">
         <v>90.7959586689265</v>
@@ -10400,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2275.67840909091</v>
+        <v>737.642980463365</v>
       </c>
       <c r="G38" t="n">
         <v>311.759701597401</v>
@@ -10429,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>949.130104681928</v>
+        <v>275.007514070435</v>
       </c>
       <c r="G39" t="n">
         <v>143.671224829749</v>
@@ -10458,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2602.96202531646</v>
+        <v>269.485533076253</v>
       </c>
       <c r="G40" t="n">
         <v>154.593999393531</v>
@@ -10487,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3083.28812107367</v>
+        <v>445.386367926592</v>
       </c>
       <c r="G41" t="n">
         <v>253.711484732741</v>
@@ -10516,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1923.77528089888</v>
+        <v>265.189055865169</v>
       </c>
       <c r="G42" t="n">
         <v>144.532475320956</v>
@@ -10545,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2935.53144997659</v>
+        <v>478.348915484743</v>
       </c>
       <c r="G43" t="n">
         <v>238.391891130924</v>
@@ -10574,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1309.54128440367</v>
+        <v>119.853800433578</v>
       </c>
       <c r="G44" t="n">
         <v>80.7079384821417</v>
@@ -10603,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2808.95900214702</v>
+        <v>534.681368572738</v>
       </c>
       <c r="G45" t="n">
         <v>315.386964582623</v>
@@ -10630,7 +10560,7 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>3945.75703356367</v>
+        <v>782.561353254044</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="n">
@@ -10657,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1757.73372309328</v>
+        <v>438.294322567601</v>
       </c>
       <c r="G47" t="n">
         <v>238.096920635687</v>
@@ -10686,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2319.75365011946</v>
+        <v>394.442175327615</v>
       </c>
       <c r="G48" t="n">
         <v>233.72688240183</v>
@@ -10709,22 +10639,22 @@
         <v>2022</v>
       </c>
       <c r="D49" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1738.23157894737</v>
+        <v>280.896436522338</v>
       </c>
       <c r="G49" t="n">
-        <v>216.986610460926</v>
+        <v>185.434517725229</v>
       </c>
       <c r="H49" t="n">
-        <v>488.472141040486</v>
+        <v>506.896436522338</v>
       </c>
       <c r="I49" t="n">
-        <v>216.986610460926</v>
+        <v>185.434517725229</v>
       </c>
     </row>
     <row r="50">
@@ -10744,7 +10674,7 @@
         <v>4.09754267091875</v>
       </c>
       <c r="F50" t="n">
-        <v>4538.31966520129</v>
+        <v>1922.42382790284</v>
       </c>
       <c r="G50" t="n">
         <v>926.026560776638</v>
@@ -10773,7 +10703,7 @@
         <v>3.83252566018807</v>
       </c>
       <c r="F51" t="n">
-        <v>3876.03915278651</v>
+        <v>736.663497203891</v>
       </c>
       <c r="G51" t="n">
         <v>370.55718663575</v>
@@ -10802,7 +10732,7 @@
         <v>8.04148459483695</v>
       </c>
       <c r="F52" t="n">
-        <v>4754.83444810612</v>
+        <v>3843.30738393008</v>
       </c>
       <c r="G52" t="n">
         <v>1821.44338143972</v>
@@ -10831,7 +10761,7 @@
         <v>5.55931032413194</v>
       </c>
       <c r="F53" t="n">
-        <v>4585.01893210233</v>
+        <v>2675.77093723952</v>
       </c>
       <c r="G53" t="n">
         <v>1277.53263151912</v>
@@ -10860,7 +10790,7 @@
         <v>8.50608375035186</v>
       </c>
       <c r="F54" t="n">
-        <v>8176.61709558249</v>
+        <v>1438.18031585483</v>
       </c>
       <c r="G54" t="n">
         <v>702.40239740563</v>
@@ -10889,7 +10819,7 @@
         <v>7.26386174517384</v>
       </c>
       <c r="F55" t="n">
-        <v>7229.89559386136</v>
+        <v>2410.39555507905</v>
       </c>
       <c r="G55" t="n">
         <v>1164.78476506647</v>
@@ -10918,7 +10848,7 @@
         <v>11.4499545644077</v>
       </c>
       <c r="F56" t="n">
-        <v>10184.6855723273</v>
+        <v>4907.81796678866</v>
       </c>
       <c r="G56" t="n">
         <v>2344.25057017808</v>
@@ -10947,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>4135.00781469229</v>
+        <v>1099.35318691691</v>
       </c>
       <c r="G57" t="n">
         <v>531.286388733057</v>
@@ -10976,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>9004.46773610096</v>
+        <v>1382.45001558828</v>
       </c>
       <c r="G58" t="n">
         <v>683.837698744299</v>
@@ -11005,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5323.71642671882</v>
+        <v>989.682109899182</v>
       </c>
       <c r="G59" t="n">
         <v>478.209540429992</v>
@@ -11034,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>3060.92467596831</v>
+        <v>781.520556119597</v>
       </c>
       <c r="G60" t="n">
         <v>375.51373556871</v>
@@ -11063,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3179.79553717097</v>
+        <v>418.871136865604</v>
       </c>
       <c r="G61" t="n">
         <v>205.52389446278</v>
@@ -11092,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1849.23851478918</v>
+        <v>270.448013122542</v>
       </c>
       <c r="G62" t="n">
         <v>208.916299053434</v>
@@ -11121,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3391.79151624549</v>
+        <v>1042.80644751671</v>
       </c>
       <c r="G63" t="n">
         <v>876.219169418684</v>
@@ -11150,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2868.07121661721</v>
+        <v>444.256458981009</v>
       </c>
       <c r="G64" t="n">
         <v>416.605685970407</v>
@@ -11179,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2887.67368421053</v>
+        <v>1020.43748083131</v>
       </c>
       <c r="G65" t="n">
         <v>971.44802111135</v>
@@ -11208,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3102.53114100648</v>
+        <v>1317.88759662321</v>
       </c>
       <c r="G66" t="n">
         <v>1111.03754070418</v>
@@ -11237,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2899.70160167131</v>
+        <v>428.214013967131</v>
       </c>
       <c r="G67" t="n">
         <v>376.634218115113</v>
@@ -11266,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2812.92110376992</v>
+        <v>748.700689891702</v>
       </c>
       <c r="G68" t="n">
         <v>605.255053505754</v>
@@ -11295,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>3495.81181959564</v>
+        <v>614.057415963271</v>
       </c>
       <c r="G69" t="n">
         <v>675.480274703615</v>
@@ -11322,7 +11252,7 @@
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>6636.27092511013</v>
+        <v>2168.59857557231</v>
       </c>
       <c r="G70" t="n">
         <v>1401.50576960702</v>
@@ -11351,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2763.45933562428</v>
+        <v>738.451836260557</v>
       </c>
       <c r="G71" t="n">
         <v>534.374617909119</v>
@@ -11380,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2375.28830313015</v>
+        <v>609.811163584157</v>
       </c>
       <c r="G72" t="n">
         <v>432.203796428358</v>
@@ -11403,22 +11333,22 @@
         <v>2022</v>
       </c>
       <c r="D73" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>4033.09928688975</v>
+        <v>2047.30279984824</v>
       </c>
       <c r="G73" t="n">
-        <v>1294.14059956177</v>
+        <v>1617.31396316316</v>
       </c>
       <c r="H73" t="n">
-        <v>1377.40760312154</v>
+        <v>2217.30279984824</v>
       </c>
       <c r="I73" t="n">
-        <v>1294.14059956177</v>
+        <v>1617.31396316316</v>
       </c>
     </row>
     <row r="74">
@@ -11438,7 +11368,7 @@
         <v>1.26809516795862</v>
       </c>
       <c r="F74" t="n">
-        <v>392.788175090064</v>
+        <v>61.9742910925074</v>
       </c>
       <c r="G74" t="n">
         <v>69.3341159862202</v>
@@ -11467,7 +11397,7 @@
         <v>1.66952559968393</v>
       </c>
       <c r="F75" t="n">
-        <v>922.106999275605</v>
+        <v>145.490448072785</v>
       </c>
       <c r="G75" t="n">
         <v>162.768325764442</v>
@@ -11496,7 +11426,7 @@
         <v>2.20743544594174</v>
       </c>
       <c r="F76" t="n">
-        <v>922.106999275605</v>
+        <v>321.714644974437</v>
       </c>
       <c r="G76" t="n">
         <v>301.803910453452</v>
@@ -11525,7 +11455,7 @@
         <v>3.34679167681528</v>
       </c>
       <c r="F77" t="n">
-        <v>902.677637673557</v>
+        <v>142.424874850294</v>
       </c>
       <c r="G77" t="n">
         <v>159.338697032503</v>
@@ -11554,7 +11484,7 @@
         <v>3.73440315338342</v>
       </c>
       <c r="F78" t="n">
-        <v>812.882479999224</v>
+        <v>57.5202202809064</v>
       </c>
       <c r="G78" t="n">
         <v>63.28903360212</v>
@@ -11583,7 +11513,7 @@
         <v>3.21478875697922</v>
       </c>
       <c r="F79" t="n">
-        <v>960.965722479702</v>
+        <v>73.3245704052659</v>
       </c>
       <c r="G79" t="n">
         <v>80.9986968129991</v>
@@ -11612,7 +11542,7 @@
         <v>4.56580191017963</v>
       </c>
       <c r="F80" t="n">
-        <v>751.968805787396</v>
+        <v>58.3394529379258</v>
       </c>
       <c r="G80" t="n">
         <v>63.5197071549462</v>
@@ -11641,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>701.557489198296</v>
+        <v>110.692049331002</v>
       </c>
       <c r="G81" t="n">
         <v>123.837405023516</v>
@@ -11670,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>485.734040051216</v>
+        <v>76.6393305622584</v>
       </c>
       <c r="G82" t="n">
         <v>85.7407182984675</v>
@@ -11699,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>505.163401653264</v>
+        <v>79.7049037847488</v>
       </c>
       <c r="G83" t="n">
         <v>89.1703470304062</v>
@@ -11728,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>587.606908991687</v>
+        <v>113.782050628256</v>
       </c>
       <c r="G84" t="n">
         <v>107.340229406224</v>
@@ -11757,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>425.345483720524</v>
+        <v>50.6863949490904</v>
       </c>
       <c r="G85" t="n">
         <v>49.2758684764975</v>
@@ -11786,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>725.362878455463</v>
+        <v>86.894655979498</v>
       </c>
       <c r="G86" t="n">
         <v>100.48865923165</v>
@@ -11815,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>210.936393442623</v>
+        <v>43.6629095412197</v>
       </c>
       <c r="G87" t="n">
         <v>47.9588688755543</v>
@@ -11844,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>774.186226964112</v>
+        <v>64.6174038856411</v>
       </c>
       <c r="G88" t="n">
         <v>86.2207415956229</v>
@@ -11873,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>498.33045622688</v>
+        <v>86.5052327328089</v>
       </c>
       <c r="G89" t="n">
         <v>109.901541556999</v>
@@ -11902,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>196.130464954892</v>
+        <v>28.9701952296683</v>
       </c>
       <c r="G90" t="n">
         <v>41.1904671510005</v>
@@ -11931,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>262.797435897436</v>
+        <v>58.5350454438385</v>
       </c>
       <c r="G91" t="n">
         <v>73.2349268842568</v>
@@ -11960,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>403.408673894912</v>
+        <v>64.6089997233378</v>
       </c>
       <c r="G92" t="n">
         <v>108.540385035889</v>
@@ -11989,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>281.24095139607</v>
+        <v>58.5368051144157</v>
       </c>
       <c r="G93" t="n">
         <v>125.557105156917</v>
@@ -12016,7 +11946,7 @@
       </c>
       <c r="E94"/>
       <c r="F94" t="n">
-        <v>729.573826458037</v>
+        <v>111.963539493999</v>
       </c>
       <c r="G94" t="n">
         <v>124.857349198575</v>
@@ -12045,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>412.656330749354</v>
+        <v>57.6645893837473</v>
       </c>
       <c r="G95" t="n">
         <v>62.2212920625932</v>
@@ -12074,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>373.930907415937</v>
+        <v>98.3465236906432</v>
       </c>
       <c r="G96" t="n">
         <v>85.3734102032115</v>
@@ -12097,5794 +12027,22 @@
         <v>2022</v>
       </c>
       <c r="D97" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>532.986547085202</v>
+        <v>87.0107934538763</v>
       </c>
       <c r="G97" t="n">
-        <v>151.14945245715</v>
+        <v>141.018701065601</v>
       </c>
       <c r="H97" t="n">
-        <v>294.941489096846</v>
+        <v>299.010793453876</v>
       </c>
       <c r="I97" t="n">
-        <v>151.14945245715</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D2" t="n">
-        <v>723</v>
-      </c>
-      <c r="E2" t="n">
-        <v>46.2343175083091</v>
-      </c>
-      <c r="F2" t="n">
-        <v>669.18469850097</v>
-      </c>
-      <c r="G2" t="n">
-        <v>204.234295378365</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1392.18469850097</v>
-      </c>
-      <c r="I2" t="n">
-        <v>209.402147849912</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>809</v>
-      </c>
-      <c r="E3" t="n">
-        <v>51.7338352202242</v>
-      </c>
-      <c r="F3" t="n">
-        <v>624.075903574355</v>
-      </c>
-      <c r="G3" t="n">
-        <v>189.879579495481</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1433.07590357436</v>
-      </c>
-      <c r="I3" t="n">
-        <v>196.801027476926</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1225</v>
-      </c>
-      <c r="E4" t="n">
-        <v>78.3361534546039</v>
-      </c>
-      <c r="F4" t="n">
-        <v>942.513659860521</v>
-      </c>
-      <c r="G4" t="n">
-        <v>287.653937152626</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2167.51365986052</v>
-      </c>
-      <c r="I4" t="n">
-        <v>298.129737693962</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>694</v>
-      </c>
-      <c r="E5" t="n">
-        <v>44.379828977547</v>
-      </c>
-      <c r="F5" t="n">
-        <v>522.056462714878</v>
-      </c>
-      <c r="G5" t="n">
-        <v>158.880005702167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1216.05646271488</v>
-      </c>
-      <c r="I5" t="n">
-        <v>164.961890847544</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2107</v>
-      </c>
-      <c r="E6" t="n">
-        <v>134.738183941919</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1600.92677367737</v>
-      </c>
-      <c r="G6" t="n">
-        <v>488.600758963532</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3707.92677367737</v>
-      </c>
-      <c r="I6" t="n">
-        <v>506.83831728837</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4247</v>
-      </c>
-      <c r="E7" t="n">
-        <v>271.586647936084</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3112.31474966799</v>
-      </c>
-      <c r="G7" t="n">
-        <v>949.874393897566</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7359.31474966799</v>
-      </c>
-      <c r="I7" t="n">
-        <v>987.937584829844</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4470</v>
-      </c>
-      <c r="E8" t="n">
-        <v>285.847025258841</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3188.38906649959</v>
-      </c>
-      <c r="G8" t="n">
-        <v>973.092175967742</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7658.38906649959</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1014.20752549908</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3460</v>
-      </c>
-      <c r="E9" t="n">
-        <v>221.259666084024</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2433.70491456842</v>
-      </c>
-      <c r="G9" t="n">
-        <v>742.763559147675</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5893.70491456842</v>
-      </c>
-      <c r="I9" t="n">
-        <v>775.018415673676</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2250</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1658.15081731176</v>
-      </c>
-      <c r="G10" t="n">
-        <v>506.065462290656</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3908.15081731176</v>
-      </c>
-      <c r="I10" t="n">
-        <v>506.065462290656</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2365</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1722.78032541648</v>
-      </c>
-      <c r="G11" t="n">
-        <v>525.790303695408</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4087.78032541648</v>
-      </c>
-      <c r="I11" t="n">
-        <v>525.790303695408</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1456.1836044845</v>
-      </c>
-      <c r="G12" t="n">
-        <v>444.425332900808</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3462.1836044845</v>
-      </c>
-      <c r="I12" t="n">
-        <v>444.425332900808</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2662</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2032.84171236299</v>
-      </c>
-      <c r="G13" t="n">
-        <v>617.457588987504</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4694.84171236299</v>
-      </c>
-      <c r="I13" t="n">
-        <v>617.457588987504</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3249</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3061.94170465312</v>
-      </c>
-      <c r="G14" t="n">
-        <v>930.242227912921</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6310.94170465312</v>
-      </c>
-      <c r="I14" t="n">
-        <v>930.242227912921</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2570</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2063.57135275081</v>
-      </c>
-      <c r="G15" t="n">
-        <v>555.677793710193</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4633.57135275081</v>
-      </c>
-      <c r="I15" t="n">
-        <v>555.677793710193</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4109</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5255.18023649728</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1297.07938965757</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9364.18023649728</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1297.07938965757</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4380</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3169.90921158769</v>
-      </c>
-      <c r="G17" t="n">
-        <v>853.83069299231</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7549.90921158769</v>
-      </c>
-      <c r="I17" t="n">
-        <v>853.83069299231</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4369</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3330.77747571933</v>
-      </c>
-      <c r="G18" t="n">
-        <v>757.290934333077</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7699.77747571933</v>
-      </c>
-      <c r="I18" t="n">
-        <v>757.290934333077</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5864</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3850.38678535391</v>
-      </c>
-      <c r="G19" t="n">
-        <v>868.793631302986</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9714.38678535391</v>
-      </c>
-      <c r="I19" t="n">
-        <v>868.793631302986</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D20" t="n">
-        <v>9344</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6204.84300142463</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1121.46696959835</v>
-      </c>
-      <c r="H20" t="n">
-        <v>15548.8430014246</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1121.46696959835</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7453</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3076.3798712347</v>
-      </c>
-      <c r="G21" t="n">
-        <v>678.321380958201</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10529.3798712347</v>
-      </c>
-      <c r="I21" t="n">
-        <v>678.321380958201</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11978</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9619.03185640088</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2246.65064490905</v>
-      </c>
-      <c r="H22" t="n">
-        <v>21597.0318564009</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2246.65064490905</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D23" t="n">
-        <v>15076</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>11261.1384434689</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2651.74267610497</v>
-      </c>
-      <c r="H23" t="n">
-        <v>26337.1384434689</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2651.74267610497</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9134</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9796.55969191271</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2495.88449956201</v>
-      </c>
-      <c r="H24" t="n">
-        <v>18930.5596919127</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2495.88449956201</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13225</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6551.07899236736</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1635.21992364671</v>
-      </c>
-      <c r="H25" t="n">
-        <v>19776.0789923674</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1635.21992364671</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12464</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8597.14724246422</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1894.49591315315</v>
-      </c>
-      <c r="H26" t="n">
-        <v>21061.1472424642</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1894.49591315315</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3927</v>
-      </c>
-      <c r="E27" t="n">
-        <v>353.608575342144</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2186.46646586979</v>
-      </c>
-      <c r="G27" t="n">
-        <v>532.779713917299</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6113.46646586979</v>
-      </c>
-      <c r="I27" t="n">
-        <v>639.447611706619</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D28" t="n">
-        <v>8138</v>
-      </c>
-      <c r="E28" t="n">
-        <v>732.790065223929</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2813.51174763445</v>
-      </c>
-      <c r="G28" t="n">
-        <v>704.684697009306</v>
-      </c>
-      <c r="H28" t="n">
-        <v>10951.5117476344</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1016.64241594082</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10703</v>
-      </c>
-      <c r="E29" t="n">
-        <v>963.756705344275</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5337.94718477947</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1307.13659684086</v>
-      </c>
-      <c r="H29" t="n">
-        <v>16040.9471847795</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1624.01757068597</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D30" t="n">
-        <v>18457</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1661.96930865545</v>
-      </c>
-      <c r="F30" t="n">
-        <v>8096.90124197958</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1984.33084576686</v>
-      </c>
-      <c r="H30" t="n">
-        <v>26553.9012419796</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2588.37997372382</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D31" t="n">
-        <v>15088</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1358.60610765528</v>
-      </c>
-      <c r="F31" t="n">
-        <v>7650.36895920588</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1854.15834713142</v>
-      </c>
-      <c r="H31" t="n">
-        <v>22738.3689592059</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2298.63301377043</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D32" t="n">
-        <v>13573</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1222.18721495262</v>
-      </c>
-      <c r="F32" t="n">
-        <v>7383.4638141915</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1789.91717062655</v>
-      </c>
-      <c r="H32" t="n">
-        <v>20956.4638141915</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2167.3820766301</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D33" t="n">
-        <v>15959</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1437.03571527509</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7413.21042280929</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1800.64968257939</v>
-      </c>
-      <c r="H33" t="n">
-        <v>23372.2104228093</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2303.78187473325</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D34" t="n">
-        <v>18621</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1676.73676634736</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8485.58385583336</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2073.58043801046</v>
-      </c>
-      <c r="H34" t="n">
-        <v>27106.5838558334</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2666.67996139781</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D35" t="n">
-        <v>15867</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6869.69172027942</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1679.64248812947</v>
-      </c>
-      <c r="H35" t="n">
-        <v>22736.6917202794</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1679.64248812947</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D36" t="n">
-        <v>19743</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9308.05821157325</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2268.48706467615</v>
-      </c>
-      <c r="H36" t="n">
-        <v>29051.0582115732</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2268.48706467615</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D37" t="n">
-        <v>20867</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9652.4223484761</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2360.33123009897</v>
-      </c>
-      <c r="H37" t="n">
-        <v>30519.4223484761</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2360.33123009897</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D38" t="n">
-        <v>18588</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>8702.82903304562</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2109.48653181191</v>
-      </c>
-      <c r="H38" t="n">
-        <v>27290.8290330456</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2109.48653181191</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D39" t="n">
-        <v>20838</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10371.7765179888</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2515.98610396879</v>
-      </c>
-      <c r="H39" t="n">
-        <v>31209.7765179888</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2515.98610396879</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D40" t="n">
-        <v>24713</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>12120.9746726418</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1680.07923631973</v>
-      </c>
-      <c r="H40" t="n">
-        <v>36833.9746726418</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1680.07923631973</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D41" t="n">
-        <v>22056</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>8600.95194929058</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1068.55490840653</v>
-      </c>
-      <c r="H41" t="n">
-        <v>30656.9519492906</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1068.55490840653</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D42" t="n">
-        <v>25257</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>14555.8691514741</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1711.61262015418</v>
-      </c>
-      <c r="H42" t="n">
-        <v>39812.8691514741</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1711.61262015418</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D43" t="n">
-        <v>31936</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16298.7911030428</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1988.29703917811</v>
-      </c>
-      <c r="H43" t="n">
-        <v>48234.7911030428</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1988.29703917811</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D44" t="n">
-        <v>39744</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>19192.3166841902</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2182.8188284263</v>
-      </c>
-      <c r="H44" t="n">
-        <v>58936.3166841902</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2182.8188284263</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D45" t="n">
-        <v>49153</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16595.8610402822</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1995.85029757765</v>
-      </c>
-      <c r="H45" t="n">
-        <v>65748.8610402822</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1995.85029757765</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D46" t="n">
-        <v>32335</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>12319.0325450862</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1634.65757132001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>44654.0325450862</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1634.65757132001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D47" t="n">
-        <v>41846</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13175.6282384338</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1762.62430702607</v>
-      </c>
-      <c r="H47" t="n">
-        <v>55021.6282384338</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1762.62430702607</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D48" t="n">
-        <v>55039</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>21397.3123686037</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2783.55382336048</v>
-      </c>
-      <c r="H48" t="n">
-        <v>76436.3123686037</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2783.55382336048</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D49" t="n">
-        <v>37152</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9538.70455229588</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1356.25582842464</v>
-      </c>
-      <c r="H49" t="n">
-        <v>46690.7045522959</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1356.25582842464</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D50" t="n">
-        <v>73272</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>18270.0429326533</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2602.65349145044</v>
-      </c>
-      <c r="H50" t="n">
-        <v>91542.0429326533</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2602.65349145044</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D51" t="n">
-        <v>76808</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>18824.052628326</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2879.09669289708</v>
-      </c>
-      <c r="H51" t="n">
-        <v>95632.052628326</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2879.09669289708</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2098</v>
-      </c>
-      <c r="E52" t="n">
-        <v>286.920455140942</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4618.10327175813</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2363.86036045806</v>
-      </c>
-      <c r="H52" t="n">
-        <v>6716.10327175813</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2381.2095983603</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2609</v>
-      </c>
-      <c r="E53" t="n">
-        <v>356.804321955538</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5604.55453044825</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1752.27067237329</v>
-      </c>
-      <c r="H53" t="n">
-        <v>8213.55453044825</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1788.22868599788</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3391</v>
-      </c>
-      <c r="E54" t="n">
-        <v>463.749887217795</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10768.3142931144</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3308.68014758512</v>
-      </c>
-      <c r="H54" t="n">
-        <v>14159.3142931144</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3341.02204077112</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4209</v>
-      </c>
-      <c r="E55" t="n">
-        <v>575.618777735093</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1384.14024278247</v>
-      </c>
-      <c r="G55" t="n">
-        <v>528.65492298782</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5593.14024278247</v>
-      </c>
-      <c r="I55" t="n">
-        <v>781.545267326532</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4880</v>
-      </c>
-      <c r="E56" t="n">
-        <v>667.384090127644</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5931.62851477727</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1914.77060050533</v>
-      </c>
-      <c r="H56" t="n">
-        <v>10811.6285147773</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2027.74455400947</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D57" t="n">
-        <v>8745</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1195.95775987013</v>
-      </c>
-      <c r="F57" t="n">
-        <v>19178.0535387468</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5863.00488157138</v>
-      </c>
-      <c r="H57" t="n">
-        <v>27923.0535387468</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5983.73973403952</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D58" t="n">
-        <v>7438</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1017.21370130521</v>
-      </c>
-      <c r="F58" t="n">
-        <v>13548.1851348582</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4198.30581207288</v>
-      </c>
-      <c r="H58" t="n">
-        <v>20986.1851348582</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4319.77955523288</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D59" t="n">
-        <v>8176</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1118.14186903353</v>
-      </c>
-      <c r="F59" t="n">
-        <v>4992.29228512907</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1654.84481703953</v>
-      </c>
-      <c r="H59" t="n">
-        <v>13168.2922851291</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1997.18617253585</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4593</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10728.6096322693</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3296.34979687249</v>
-      </c>
-      <c r="H60" t="n">
-        <v>15321.6096322693</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3296.34979687249</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D61" t="n">
-        <v>9289</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>21432.7387327948</v>
-      </c>
-      <c r="G61" t="n">
-        <v>6550.55390822326</v>
-      </c>
-      <c r="H61" t="n">
-        <v>30721.7387327948</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6550.55390822326</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6899</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>15933.0307338358</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4854.82348222459</v>
-      </c>
-      <c r="H62" t="n">
-        <v>22832.0307338358</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4854.82348222459</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5973</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>11948.9589161851</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3653.36552873337</v>
-      </c>
-      <c r="H63" t="n">
-        <v>17921.9589161851</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3653.36552873337</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D64" t="n">
-        <v>8081</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>20856.2287210563</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6354.80356964299</v>
-      </c>
-      <c r="H64" t="n">
-        <v>28937.2287210563</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6354.80356964299</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D65" t="n">
-        <v>8192</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>37727.2657637929</v>
-      </c>
-      <c r="G65" t="n">
-        <v>6565.35340387505</v>
-      </c>
-      <c r="H65" t="n">
-        <v>45919.2657637929</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6565.35340387505</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9313</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>13627.4829630192</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2486.63133124938</v>
-      </c>
-      <c r="H66" t="n">
-        <v>22940.4829630192</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2486.63133124938</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D67" t="n">
-        <v>10875</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>22383.9601419029</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3529.90408316836</v>
-      </c>
-      <c r="H67" t="n">
-        <v>33258.9601419029</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3529.90408316836</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D68" t="n">
-        <v>10729</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>9262.85310735517</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1833.27257875284</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19991.8531073552</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1833.27257875284</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D69" t="n">
-        <v>14853</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>8493.10659334825</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1535.4664186861</v>
-      </c>
-      <c r="H69" t="n">
-        <v>23346.1065933483</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1535.4664186861</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D70" t="n">
-        <v>22198</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>38713.7005771983</v>
-      </c>
-      <c r="G70" t="n">
-        <v>6999.01351499248</v>
-      </c>
-      <c r="H70" t="n">
-        <v>60911.7005771983</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6999.01351499248</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D71" t="n">
-        <v>11566</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>18322.0041828457</v>
-      </c>
-      <c r="G71" t="n">
-        <v>3367.35284456389</v>
-      </c>
-      <c r="H71" t="n">
-        <v>29888.0041828457</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3367.35284456389</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D72" t="n">
-        <v>8741</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>8668.5226791042</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1816.97257226663</v>
-      </c>
-      <c r="H72" t="n">
-        <v>17409.5226791042</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1816.97257226663</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D73" t="n">
-        <v>11420</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12282.3004576709</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2149.01246706561</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23702.3004576709</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2149.01246706561</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6714</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>7774.85096802329</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1432.92250595421</v>
-      </c>
-      <c r="H74" t="n">
-        <v>14488.8509680233</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1432.92250595421</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D75" t="n">
-        <v>13201</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>14591.4620946674</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2691.19746086584</v>
-      </c>
-      <c r="H75" t="n">
-        <v>27792.4620946674</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2691.19746086584</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D76" t="n">
-        <v>17943</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3167.68725714487</v>
-      </c>
-      <c r="G76" t="n">
-        <v>656.841433854333</v>
-      </c>
-      <c r="H76" t="n">
-        <v>21110.6872571449</v>
-      </c>
-      <c r="I76" t="n">
-        <v>656.841433854333</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D77" t="n">
-        <v>5439</v>
-      </c>
-      <c r="E77" t="n">
-        <v>783.563666508768</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1106.85200722387</v>
-      </c>
-      <c r="G77" t="n">
-        <v>548.262190485861</v>
-      </c>
-      <c r="H77" t="n">
-        <v>6545.85200722387</v>
-      </c>
-      <c r="I77" t="n">
-        <v>956.328107392551</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D78" t="n">
-        <v>3253</v>
-      </c>
-      <c r="E78" t="n">
-        <v>468.639935126498</v>
-      </c>
-      <c r="F78" t="n">
-        <v>717.089003128818</v>
-      </c>
-      <c r="G78" t="n">
-        <v>355.199055576371</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3970.08900312882</v>
-      </c>
-      <c r="I78" t="n">
-        <v>588.038908472657</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D79" t="n">
-        <v>7038</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1013.92187624356</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1442.91918696622</v>
-      </c>
-      <c r="G79" t="n">
-        <v>714.727921146707</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8480.91918696622</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1240.51343095992</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D80" t="n">
-        <v>8211</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1182.90885561748</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1517.72232623258</v>
-      </c>
-      <c r="G80" t="n">
-        <v>745.403197025338</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9728.72232623258</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1398.17712999243</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6632</v>
-      </c>
-      <c r="E81" t="n">
-        <v>955.431924303392</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1407.64227910659</v>
-      </c>
-      <c r="G81" t="n">
-        <v>697.254045099633</v>
-      </c>
-      <c r="H81" t="n">
-        <v>8039.64227910659</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1182.79895391646</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D82" t="n">
-        <v>7248</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1044.17529966088</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1843.10164090407</v>
-      </c>
-      <c r="G82" t="n">
-        <v>884.263220060337</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9091.10164090407</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1368.29218326108</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9240</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1331.15063036239</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1783.29114713669</v>
-      </c>
-      <c r="G83" t="n">
-        <v>869.778293566739</v>
-      </c>
-      <c r="H83" t="n">
-        <v>11023.2911471367</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1590.11832285338</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D84" t="n">
-        <v>7477</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1077.16593757787</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1732.81492321751</v>
-      </c>
-      <c r="G84" t="n">
-        <v>833.973724495179</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9209.81492321751</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1362.27700201772</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D85" t="n">
-        <v>6195</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1424.9685480111</v>
-      </c>
-      <c r="G85" t="n">
-        <v>705.836347051957</v>
-      </c>
-      <c r="H85" t="n">
-        <v>7619.9685480111</v>
-      </c>
-      <c r="I85" t="n">
-        <v>705.836347051957</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8339</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1904.01646934378</v>
-      </c>
-      <c r="G86" t="n">
-        <v>943.125398328379</v>
-      </c>
-      <c r="H86" t="n">
-        <v>10243.0164693438</v>
-      </c>
-      <c r="I86" t="n">
-        <v>943.125398328379</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9818</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2089.61046688844</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1035.05654266454</v>
-      </c>
-      <c r="H87" t="n">
-        <v>11907.6104668884</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1035.05654266454</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D88" t="n">
-        <v>10348</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2115.77038158327</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1020.3987230716</v>
-      </c>
-      <c r="H88" t="n">
-        <v>12463.7703815833</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1020.3987230716</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D89" t="n">
-        <v>8515</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1943.92858558921</v>
-      </c>
-      <c r="G89" t="n">
-        <v>938.37808530879</v>
-      </c>
-      <c r="H89" t="n">
-        <v>10458.9285855892</v>
-      </c>
-      <c r="I89" t="n">
-        <v>938.37808530879</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11330</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3195.60750319305</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1008.70596122783</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14525.6075031931</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1008.70596122783</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11401</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1481.97145972907</v>
-      </c>
-      <c r="G91" t="n">
-        <v>456.519203589599</v>
-      </c>
-      <c r="H91" t="n">
-        <v>12882.9714597291</v>
-      </c>
-      <c r="I91" t="n">
-        <v>456.519203589599</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D92" t="n">
-        <v>14223</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5483.49882453165</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1667.39828324371</v>
-      </c>
-      <c r="H92" t="n">
-        <v>19706.4988245317</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1667.39828324371</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D93" t="n">
-        <v>15752</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5725.27882955456</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1541.78794165533</v>
-      </c>
-      <c r="H93" t="n">
-        <v>21477.2788295546</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1541.78794165533</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D94" t="n">
-        <v>18386</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2009.7768991971</v>
-      </c>
-      <c r="G94" t="n">
-        <v>550.588719950679</v>
-      </c>
-      <c r="H94" t="n">
-        <v>20395.7768991971</v>
-      </c>
-      <c r="I94" t="n">
-        <v>550.588719950679</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D95" t="n">
-        <v>21660</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2237.00372032057</v>
-      </c>
-      <c r="G95" t="n">
-        <v>514.113485803693</v>
-      </c>
-      <c r="H95" t="n">
-        <v>23897.0037203206</v>
-      </c>
-      <c r="I95" t="n">
-        <v>514.113485803693</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D96" t="n">
-        <v>20918</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5676.17853010615</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1911.64864207704</v>
-      </c>
-      <c r="H96" t="n">
-        <v>26594.1785301062</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1911.64864207704</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D97" t="n">
-        <v>21809</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2994.07682610695</v>
-      </c>
-      <c r="G97" t="n">
-        <v>973.798468224686</v>
-      </c>
-      <c r="H97" t="n">
-        <v>24803.076826107</v>
-      </c>
-      <c r="I97" t="n">
-        <v>973.798468224686</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D98" t="n">
-        <v>26059</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5106.57442147721</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1697.72716736194</v>
-      </c>
-      <c r="H98" t="n">
-        <v>31165.5744214772</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1697.72716736194</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D99" t="n">
-        <v>23828</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4862.26490979554</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1309.64168823495</v>
-      </c>
-      <c r="H99" t="n">
-        <v>28690.2649097955</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1309.64168823495</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D100" t="n">
-        <v>32675</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>5899.8636779035</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1649.45575053532</v>
-      </c>
-      <c r="H100" t="n">
-        <v>38574.8636779035</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1649.45575053532</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D101" t="n">
-        <v>31685</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10068.215493801</v>
-      </c>
-      <c r="G101" t="n">
-        <v>3709.74306847628</v>
-      </c>
-      <c r="H101" t="n">
-        <v>41753.215493801</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3709.74306847628</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>523</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33.4447414340881</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1191.37991065767</v>
-      </c>
-      <c r="G2" t="n">
-        <v>637.619013938125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1714.37991065767</v>
-      </c>
-      <c r="I2" t="n">
-        <v>638.495542400273</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>657</v>
-      </c>
-      <c r="E3" t="n">
-        <v>42.0137574038162</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1459.28531929899</v>
-      </c>
-      <c r="G3" t="n">
-        <v>781.920843840349</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2116.28531929899</v>
-      </c>
-      <c r="I3" t="n">
-        <v>783.048760833698</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>623</v>
-      </c>
-      <c r="E4" t="n">
-        <v>39.8395294711986</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1398.79938861709</v>
-      </c>
-      <c r="G4" t="n">
-        <v>748.701386777804</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2021.79938861709</v>
-      </c>
-      <c r="I4" t="n">
-        <v>749.76059823886</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1501</v>
-      </c>
-      <c r="E5" t="n">
-        <v>95.985768437029</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3084.48421495239</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1652.74224873748</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4585.48421495239</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1655.52716936457</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2929</v>
-      </c>
-      <c r="E6" t="n">
-        <v>187.303341606967</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6157.65614060789</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3299.42309558473</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9086.65614060789</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3304.73528523164</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3381</v>
-      </c>
-      <c r="E7" t="n">
-        <v>216.207783534707</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6638.42843572577</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3557.03267591973</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10019.4284357258</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3563.59751700745</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2101</v>
-      </c>
-      <c r="E8" t="n">
-        <v>134.354496659692</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4155.38093505811</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2226.55496101309</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6256.38093505811</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2230.60487876824</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1399</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2835.61385042078</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1519.39140715231</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4234.61385042078</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1519.39140715231</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1226</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2379.35151544616</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1274.91486424615</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3605.35151544616</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1274.91486424615</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D11" t="n">
-        <v>689</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1389.52620196816</v>
-      </c>
-      <c r="G11" t="n">
-        <v>744.542198850565</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2078.52620196816</v>
-      </c>
-      <c r="I11" t="n">
-        <v>744.542198850565</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D12" t="n">
-        <v>538</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1180.3567443673</v>
-      </c>
-      <c r="G12" t="n">
-        <v>631.311944547204</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1718.3567443673</v>
-      </c>
-      <c r="I12" t="n">
-        <v>631.311944547204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D13" t="n">
-        <v>546</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1338.03325011374</v>
-      </c>
-      <c r="G13" t="n">
-        <v>715.704783604431</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1884.03325011374</v>
-      </c>
-      <c r="I13" t="n">
-        <v>715.704783604431</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D14" t="n">
-        <v>640</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3697.13804651163</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3197.16465785401</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4337.13804651163</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3197.16465785401</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D15" t="n">
-        <v>298</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>538.746842490842</v>
-      </c>
-      <c r="G15" t="n">
-        <v>447.950155722369</v>
-      </c>
-      <c r="H15" t="n">
-        <v>836.746842490842</v>
-      </c>
-      <c r="I15" t="n">
-        <v>447.950155722369</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D16" t="n">
-        <v>460</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>759.935667206062</v>
-      </c>
-      <c r="G16" t="n">
-        <v>559.69040185145</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1219.93566720606</v>
-      </c>
-      <c r="I16" t="n">
-        <v>559.69040185145</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D17" t="n">
-        <v>287</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>696.704468684495</v>
-      </c>
-      <c r="G17" t="n">
-        <v>622.724157414816</v>
-      </c>
-      <c r="H17" t="n">
-        <v>983.704468684495</v>
-      </c>
-      <c r="I17" t="n">
-        <v>622.724157414816</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D18" t="n">
-        <v>486</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1108.88875315156</v>
-      </c>
-      <c r="G18" t="n">
-        <v>957.682232663805</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1594.88875315156</v>
-      </c>
-      <c r="I18" t="n">
-        <v>957.682232663805</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D19" t="n">
-        <v>355</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>577.206196690201</v>
-      </c>
-      <c r="G19" t="n">
-        <v>371.877557503932</v>
-      </c>
-      <c r="H19" t="n">
-        <v>932.206196690201</v>
-      </c>
-      <c r="I19" t="n">
-        <v>371.877557503932</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D20" t="n">
-        <v>228</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>384.83041800115</v>
-      </c>
-      <c r="G20" t="n">
-        <v>316.352718476367</v>
-      </c>
-      <c r="H20" t="n">
-        <v>612.83041800115</v>
-      </c>
-      <c r="I20" t="n">
-        <v>316.352718476367</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D21" t="n">
-        <v>342</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1036.26076313129</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1024.09432393518</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1378.26076313129</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1024.09432393518</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D22" t="n">
-        <v>306</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>532.888740839441</v>
-      </c>
-      <c r="G22" t="n">
-        <v>507.223879528005</v>
-      </c>
-      <c r="H22" t="n">
-        <v>838.888740839441</v>
-      </c>
-      <c r="I22" t="n">
-        <v>507.223879528005</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D23" t="n">
-        <v>187</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1146.8266570864</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1429.30059993658</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1333.8266570864</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1429.30059993658</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D24" t="n">
-        <v>401</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>593.854258121159</v>
-      </c>
-      <c r="G24" t="n">
-        <v>737.742862365906</v>
-      </c>
-      <c r="H24" t="n">
-        <v>994.854258121159</v>
-      </c>
-      <c r="I24" t="n">
-        <v>737.742862365906</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D25" t="n">
-        <v>301</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>550.257048586709</v>
-      </c>
-      <c r="G25" t="n">
-        <v>619.618570915243</v>
-      </c>
-      <c r="H25" t="n">
-        <v>851.257048586709</v>
-      </c>
-      <c r="I25" t="n">
-        <v>619.618570915243</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3084</v>
-      </c>
-      <c r="E26" t="n">
-        <v>277.700240986802</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2273.81918624853</v>
-      </c>
-      <c r="G26" t="n">
-        <v>910.589124410624</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5357.81918624853</v>
-      </c>
-      <c r="I26" t="n">
-        <v>951.992635128568</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5410</v>
-      </c>
-      <c r="E27" t="n">
-        <v>487.146012885409</v>
-      </c>
-      <c r="F27" t="n">
-        <v>6171.81767196544</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2448.20759209602</v>
-      </c>
-      <c r="H27" t="n">
-        <v>11581.8176719654</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2496.20344761134</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5021</v>
-      </c>
-      <c r="E28" t="n">
-        <v>452.118323603999</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4799.66280880352</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1904.54384753979</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9820.66280880352</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1957.47241251062</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3608</v>
-      </c>
-      <c r="E29" t="n">
-        <v>324.884069221914</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4006.25319396901</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1582.41250418858</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7614.25319396901</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1615.41913813306</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3621</v>
-      </c>
-      <c r="E30" t="n">
-        <v>326.054660380419</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4285.84535913743</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1693.02104118436</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7906.84535913743</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1724.1322128679</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4578</v>
-      </c>
-      <c r="E31" t="n">
-        <v>412.228178741109</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4430.71143391325</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1751.65796372186</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9008.71143391325</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1799.51040375387</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4462</v>
-      </c>
-      <c r="E32" t="n">
-        <v>401.782903788298</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4340.95296213292</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1720.45399802417</v>
-      </c>
-      <c r="H32" t="n">
-        <v>8802.95296213292</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1766.74600921975</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3243</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2955.633769275</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1171.67845065219</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6198.633769275</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1171.67845065219</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2816</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2893.42611049514</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1145.48348536139</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5709.42611049514</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1145.48348536139</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2366</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2433.24649217652</v>
-      </c>
-      <c r="G35" t="n">
-        <v>964.645225355232</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4799.24649217652</v>
-      </c>
-      <c r="I35" t="n">
-        <v>964.645225355232</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1435</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1535.79804830336</v>
-      </c>
-      <c r="G36" t="n">
-        <v>606.647967907056</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2970.79804830336</v>
-      </c>
-      <c r="I36" t="n">
-        <v>606.647967907056</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1370</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1494.47662028974</v>
-      </c>
-      <c r="G37" t="n">
-        <v>590.515247570186</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2864.47662028974</v>
-      </c>
-      <c r="I37" t="n">
-        <v>590.515247570186</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1223</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1260.53056538838</v>
-      </c>
-      <c r="G38" t="n">
-        <v>526.92677736392</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2483.53056538838</v>
-      </c>
-      <c r="I38" t="n">
-        <v>526.92677736392</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D39" t="n">
-        <v>860</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>616.16305215821</v>
-      </c>
-      <c r="G39" t="n">
-        <v>319.147819162228</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1476.16305215821</v>
-      </c>
-      <c r="I39" t="n">
-        <v>319.147819162228</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1258</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2208.30244313902</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1233.1876375632</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3466.30244313902</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1233.1876375632</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1220</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2311.13933077266</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1288.09522583302</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3531.13933077266</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1288.09522583302</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1532.58437361065</v>
-      </c>
-      <c r="G42" t="n">
-        <v>814.066615944379</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3274.58437361065</v>
-      </c>
-      <c r="I42" t="n">
-        <v>814.066615944379</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2162</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2249.50723603846</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1090.75303353907</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4411.50723603846</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1090.75303353907</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D44" t="n">
-        <v>859</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1058.72154169943</v>
-      </c>
-      <c r="G44" t="n">
-        <v>661.164701286272</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1917.72154169943</v>
-      </c>
-      <c r="I44" t="n">
-        <v>661.164701286272</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1955</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1967.83832478925</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1137.21227163953</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3922.83832478925</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1137.21227163953</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2629</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2789.693280808</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1209.51267999232</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5418.693280808</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1209.51267999232</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1008</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1163.79351575937</v>
-      </c>
-      <c r="G47" t="n">
-        <v>619.088183172138</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2171.79351575937</v>
-      </c>
-      <c r="I47" t="n">
-        <v>619.088183172138</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1540</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1723.33407335362</v>
-      </c>
-      <c r="G48" t="n">
-        <v>968.564944366842</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3263.33407335362</v>
-      </c>
-      <c r="I48" t="n">
-        <v>968.564944366842</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1057</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1391.67405783927</v>
-      </c>
-      <c r="G49" t="n">
-        <v>892.957224978425</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2448.67405783927</v>
-      </c>
-      <c r="I49" t="n">
-        <v>892.957224978425</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D50" t="n">
-        <v>926</v>
-      </c>
-      <c r="E50" t="n">
-        <v>126.638866282418</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2204.09458262436</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1057.32238817368</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3130.09458262436</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1064.87935231489</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D51" t="n">
-        <v>787</v>
-      </c>
-      <c r="E51" t="n">
-        <v>107.629360436569</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2716.09371078055</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1292.28835675588</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3503.09371078055</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1296.7626136787</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>889</v>
-      </c>
-      <c r="E52" t="n">
-        <v>121.578781992516</v>
-      </c>
-      <c r="F52" t="n">
-        <v>365.885555850667</v>
-      </c>
-      <c r="G52" t="n">
-        <v>195.003098218593</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1254.88555585067</v>
-      </c>
-      <c r="I52" t="n">
-        <v>229.799061237495</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D53" t="n">
-        <v>922</v>
-      </c>
-      <c r="E53" t="n">
-        <v>126.091830142969</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1437.9916041256</v>
-      </c>
-      <c r="G53" t="n">
-        <v>700.571627927151</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2359.9916041256</v>
-      </c>
-      <c r="I53" t="n">
-        <v>711.828459311161</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1610</v>
-      </c>
-      <c r="E54" t="n">
-        <v>220.182046128178</v>
-      </c>
-      <c r="F54" t="n">
-        <v>5140.67966737306</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2440.13519121825</v>
-      </c>
-      <c r="H54" t="n">
-        <v>6750.67966737306</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2450.04895560454</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1434</v>
-      </c>
-      <c r="E55" t="n">
-        <v>196.112455992427</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3716.29416007228</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1775.2319193875</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5150.29416007228</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1786.03148432709</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2068</v>
-      </c>
-      <c r="E56" t="n">
-        <v>282.817684095075</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1819.62991378023</v>
-      </c>
-      <c r="G56" t="n">
-        <v>898.297777753929</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3887.62991378023</v>
-      </c>
-      <c r="I56" t="n">
-        <v>941.766818248843</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D57" t="n">
-        <v>731</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2289.92246132279</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1089.50044880506</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3020.92246132279</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1089.50044880506</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1791</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>6085.96651373631</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2888.47945858964</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7876.96651373631</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2888.47945858964</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D59" t="n">
-        <v>979</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3484.5021018378</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1651.45066139345</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4463.5021018378</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1651.45066139345</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D60" t="n">
-        <v>603</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1745.35339510543</v>
-      </c>
-      <c r="G60" t="n">
-        <v>828.511845971605</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2348.35339510543</v>
-      </c>
-      <c r="I60" t="n">
-        <v>828.511845971605</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D61" t="n">
-        <v>588</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2178.28790945045</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1032.37177815535</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2766.28790945045</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1032.37177815535</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D62" t="n">
-        <v>303</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1190.55849915241</v>
-      </c>
-      <c r="G62" t="n">
-        <v>906.688141179886</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1493.55849915241</v>
-      </c>
-      <c r="I62" t="n">
-        <v>906.688141179886</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D63" t="n">
-        <v>682</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1485.40515522166</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1244.89886664498</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2167.40515522166</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1244.89886664498</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D64" t="n">
-        <v>456</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1388.14371942384</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1292.39530297285</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1844.14371942384</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1292.39530297285</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D65" t="n">
-        <v>524</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>704.76026146874</v>
-      </c>
-      <c r="G65" t="n">
-        <v>672.7273461684</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1228.76026146874</v>
-      </c>
-      <c r="I65" t="n">
-        <v>672.7273461684</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D66" t="n">
-        <v>464</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>505.465219088525</v>
-      </c>
-      <c r="G66" t="n">
-        <v>430.044882355303</v>
-      </c>
-      <c r="H66" t="n">
-        <v>969.465219088525</v>
-      </c>
-      <c r="I66" t="n">
-        <v>430.044882355303</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D67" t="n">
-        <v>720</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1731.69656008225</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1454.00310712737</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2451.69656008225</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1454.00310712737</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D68" t="n">
-        <v>589</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1537.73417325109</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1216.17227534905</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2126.73417325109</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1216.17227534905</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D69" t="n">
-        <v>364</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1362.6292424487</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1481.5459093326</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1726.6292424487</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1481.5459093326</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D70" t="n">
-        <v>444</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2547.00897521312</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1642.06391029546</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2991.00897521312</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1642.06391029546</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D71" t="n">
-        <v>141</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1154.76825040863</v>
-      </c>
-      <c r="G71" t="n">
-        <v>829.420104019117</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1295.76825040863</v>
-      </c>
-      <c r="I71" t="n">
-        <v>829.420104019117</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D72" t="n">
-        <v>322</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1297.49851675843</v>
-      </c>
-      <c r="G72" t="n">
-        <v>908.170859475117</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1619.49851675843</v>
-      </c>
-      <c r="I72" t="n">
-        <v>908.170859475117</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D73" t="n">
-        <v>768</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>508.64639445633</v>
-      </c>
-      <c r="G73" t="n">
-        <v>409.819306097457</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1276.64639445633</v>
-      </c>
-      <c r="I73" t="n">
-        <v>409.819306097457</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D74" t="n">
-        <v>689</v>
-      </c>
-      <c r="E74" t="n">
-        <v>99.2600415930394</v>
-      </c>
-      <c r="F74" t="n">
-        <v>295.511961934935</v>
-      </c>
-      <c r="G74" t="n">
-        <v>270.657364828543</v>
-      </c>
-      <c r="H74" t="n">
-        <v>984.511961934935</v>
-      </c>
-      <c r="I74" t="n">
-        <v>288.284520904232</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1670</v>
-      </c>
-      <c r="E75" t="n">
-        <v>240.586748128267</v>
-      </c>
-      <c r="F75" t="n">
-        <v>693.741985505007</v>
-      </c>
-      <c r="G75" t="n">
-        <v>635.393492832782</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2363.74198550501</v>
-      </c>
-      <c r="I75" t="n">
-        <v>679.416568909809</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1662</v>
-      </c>
-      <c r="E76" t="n">
-        <v>239.434236759988</v>
-      </c>
-      <c r="F76" t="n">
-        <v>600.392354732291</v>
-      </c>
-      <c r="G76" t="n">
-        <v>547.885479618627</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2262.39235473229</v>
-      </c>
-      <c r="I76" t="n">
-        <v>597.919101977659</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1543</v>
-      </c>
-      <c r="E77" t="n">
-        <v>222.290630156836</v>
-      </c>
-      <c r="F77" t="n">
-        <v>679.124415195391</v>
-      </c>
-      <c r="G77" t="n">
-        <v>622.005361150087</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2222.12441519539</v>
-      </c>
-      <c r="I77" t="n">
-        <v>660.532961747537</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1372</v>
-      </c>
-      <c r="E78" t="n">
-        <v>197.655699659869</v>
-      </c>
-      <c r="F78" t="n">
-        <v>744.764609271604</v>
-      </c>
-      <c r="G78" t="n">
-        <v>672.951036319997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2116.7646092716</v>
-      </c>
-      <c r="I78" t="n">
-        <v>701.377838894408</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1662</v>
-      </c>
-      <c r="E79" t="n">
-        <v>239.434236759988</v>
-      </c>
-      <c r="F79" t="n">
-        <v>676.138576676985</v>
-      </c>
-      <c r="G79" t="n">
-        <v>615.186724487707</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2338.13857667699</v>
-      </c>
-      <c r="I79" t="n">
-        <v>660.138970004613</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1329</v>
-      </c>
-      <c r="E80" t="n">
-        <v>191.460951055369</v>
-      </c>
-      <c r="F80" t="n">
-        <v>649.874762861264</v>
-      </c>
-      <c r="G80" t="n">
-        <v>587.982764648533</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1978.87476286126</v>
-      </c>
-      <c r="I80" t="n">
-        <v>618.369652637287</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>527.812809017477</v>
-      </c>
-      <c r="G81" t="n">
-        <v>483.420106164349</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1650.81280901748</v>
-      </c>
-      <c r="I81" t="n">
-        <v>483.420106164349</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D82" t="n">
-        <v>678</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>365.439257740394</v>
-      </c>
-      <c r="G82" t="n">
-        <v>334.703292067382</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1043.43925774039</v>
-      </c>
-      <c r="I82" t="n">
-        <v>334.703292067382</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D83" t="n">
-        <v>737</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>380.056828050009</v>
-      </c>
-      <c r="G83" t="n">
-        <v>348.091423750078</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1117.05682805001</v>
-      </c>
-      <c r="I83" t="n">
-        <v>348.091423750078</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D84" t="n">
-        <v>887</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>436.625711274694</v>
-      </c>
-      <c r="G84" t="n">
-        <v>395.385933917154</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1323.62571127469</v>
-      </c>
-      <c r="I84" t="n">
-        <v>395.385933917154</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D85" t="n">
-        <v>490</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>305.665021934372</v>
-      </c>
-      <c r="G85" t="n">
-        <v>276.900455680653</v>
-      </c>
-      <c r="H85" t="n">
-        <v>795.665021934372</v>
-      </c>
-      <c r="I85" t="n">
-        <v>276.900455680653</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D86" t="n">
-        <v>409</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>627.620805843224</v>
-      </c>
-      <c r="G86" t="n">
-        <v>693.714095496189</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1036.62080584322</v>
-      </c>
-      <c r="I86" t="n">
-        <v>693.714095496189</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D87" t="n">
-        <v>502</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>155.985518665083</v>
-      </c>
-      <c r="G87" t="n">
-        <v>169.401688563403</v>
-      </c>
-      <c r="H87" t="n">
-        <v>657.985518665083</v>
-      </c>
-      <c r="I87" t="n">
-        <v>169.401688563403</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D88" t="n">
-        <v>420</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>616.525479906426</v>
-      </c>
-      <c r="G88" t="n">
-        <v>801.941486644252</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1036.52547990643</v>
-      </c>
-      <c r="I88" t="n">
-        <v>801.941486644252</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D89" t="n">
-        <v>488</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>387.819384451593</v>
-      </c>
-      <c r="G89" t="n">
-        <v>486.094023276221</v>
-      </c>
-      <c r="H89" t="n">
-        <v>875.819384451593</v>
-      </c>
-      <c r="I89" t="n">
-        <v>486.094023276221</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D90" t="n">
-        <v>550</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>150.854933969271</v>
-      </c>
-      <c r="G90" t="n">
-        <v>210.18462871386</v>
-      </c>
-      <c r="H90" t="n">
-        <v>700.854933969271</v>
-      </c>
-      <c r="I90" t="n">
-        <v>210.18462871386</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D91" t="n">
-        <v>745</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>157.661692956326</v>
-      </c>
-      <c r="G91" t="n">
-        <v>195.221332453125</v>
-      </c>
-      <c r="H91" t="n">
-        <v>902.661692956326</v>
-      </c>
-      <c r="I91" t="n">
-        <v>195.221332453125</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D92" t="n">
-        <v>398</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>313.293588383402</v>
-      </c>
-      <c r="G92" t="n">
-        <v>513.92805132287</v>
-      </c>
-      <c r="H92" t="n">
-        <v>711.293588383402</v>
-      </c>
-      <c r="I92" t="n">
-        <v>513.92805132287</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D93" t="n">
-        <v>546</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>178.109657039892</v>
-      </c>
-      <c r="G93" t="n">
-        <v>375.499401233805</v>
-      </c>
-      <c r="H93" t="n">
-        <v>724.109657039892</v>
-      </c>
-      <c r="I93" t="n">
-        <v>375.499401233805</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D94" t="n">
-        <v>689</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>532.585497430605</v>
-      </c>
-      <c r="G94" t="n">
-        <v>582.808710275934</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1221.5854974306</v>
-      </c>
-      <c r="I94" t="n">
-        <v>582.808710275934</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D95" t="n">
-        <v>452</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>306.509799948609</v>
-      </c>
-      <c r="G95" t="n">
-        <v>320.72048262495</v>
-      </c>
-      <c r="H95" t="n">
-        <v>758.509799948609</v>
-      </c>
-      <c r="I95" t="n">
-        <v>320.72048262495</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D96" t="n">
-        <v>360</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>270.995386154183</v>
-      </c>
-      <c r="G96" t="n">
-        <v>227.198318446184</v>
-      </c>
-      <c r="H96" t="n">
-        <v>630.995386154183</v>
-      </c>
-      <c r="I96" t="n">
-        <v>227.198318446184</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D97" t="n">
-        <v>337</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>402.47612277731</v>
-      </c>
-      <c r="G97" t="n">
-        <v>632.901099016074</v>
-      </c>
-      <c r="H97" t="n">
-        <v>739.47612277731</v>
-      </c>
-      <c r="I97" t="n">
-        <v>632.901099016074</v>
+        <v>141.018701065601</v>
       </c>
     </row>
   </sheetData>
